--- a/CExamHelp/价格和答案.xlsx
+++ b/CExamHelp/价格和答案.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>题号</t>
   </si>
@@ -47,6 +47,26 @@
   </si>
   <si>
     <t>见邮箱</t>
+  </si>
+  <si>
+    <t>10
+6
+char s[]="";f(s);</t>
+  </si>
+  <si>
+    <t>不知</t>
+  </si>
+  <si>
+    <t>FILE *fp = fopen("data.bin", "wb+x");</t>
+  </si>
+  <si>
+    <t>&amp;b[3][7]</t>
+  </si>
+  <si>
+    <t>if((year%4==0&amp;&amp;year%100!=0)||(year%400==0))</t>
+  </si>
+  <si>
+    <t>return x&gt;y?x:y;</t>
   </si>
 </sst>
 </file>
@@ -89,8 +109,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -99,6 +125,9 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,14 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="3" max="3" width="42.81640625" customWidth="1"/>
     <col min="9" max="9" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -445,11 +475,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -461,17 +494,20 @@
         <f>D2*E2</f>
         <v>2</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <v>0.375</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <v>10.7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
+      <c r="A3" s="3"/>
       <c r="B3">
-        <v>1.2</v>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -480,16 +516,19 @@
         <v>0.9</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F11" si="0">D3*E3</f>
+        <f t="shared" ref="F3:F22" si="0">D3*E3</f>
         <v>2.7</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
       <c r="B4">
-        <v>1.3</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -501,13 +540,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+      <c r="A5" s="3"/>
       <c r="B5">
-        <v>1.4</v>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -519,16 +561,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
       <c r="I5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+      <c r="A6" s="3"/>
       <c r="B6">
-        <v>1.5</v>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -540,121 +585,200 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="H7" s="1">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8">
-        <v>4.2</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9">
-        <v>4.3</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="H18" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19">
+        <v>4.2</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20">
+        <v>4.3</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22">
         <v>4.5</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="C22" s="3"/>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="H2:H6"/>
     <mergeCell ref="G2:G6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="G18:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
